--- a/OnBoard/output/trust/catch/Catch_Trust_25.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_25.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,19 +478,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Callinectes sapidus</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G3">
-        <v>0.191</v>
+        <v>1.232</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>396</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -519,16 +519,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Callinectes sapidus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>CALLSAP</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.168</v>
+        <v>0.191</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -560,16 +560,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.027</v>
+        <v>0.168</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.866</v>
+        <v>0.027</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.056</v>
+        <v>1.801</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G8">
-        <v>0.804</v>
+        <v>0.866</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -724,19 +724,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Scophthalmus rhombus</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.063</v>
+        <v>0.056</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -765,19 +765,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G10">
-        <v>1.287</v>
+        <v>0.804</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -806,19 +806,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Scophthalmus rhombus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.201</v>
+        <v>0.063</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -847,19 +847,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tonna galea</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TONNGAL</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.222</v>
+        <v>1.287</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -883,24 +883,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.844</v>
+        <v>0.201</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -924,21 +924,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gobius niger</t>
+          <t>Tonna galea</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>TONNGAL</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.021</v>
+        <v>0.222</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G15">
-        <v>1.253</v>
+        <v>1.12</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OSTREDU</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.121</v>
+        <v>0.844</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Penaeus aztecus</t>
+          <t>Gobius niger</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1093,19 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Scophthalmus rhombus</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.188</v>
+        <v>1.637</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1134,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.03</v>
+        <v>1.253</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1175,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G20">
-        <v>1.371</v>
+        <v>0.121</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Penaeus aztecus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.114</v>
+        <v>0.057</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1257,22 +1257,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Scophthalmus rhombus</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.001</v>
+        <v>0.188</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>4.823733333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Anadara kagoshimensis</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANADKAG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.053</v>
+        <v>0.03</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>4.823733333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.668</v>
+        <v>1.371</v>
       </c>
       <c r="H24">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>4.823733333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.008</v>
+        <v>0.114</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4.823733333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1421,22 +1421,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.263</v>
+        <v>0.001</v>
       </c>
       <c r="H26">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="27">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Anadara kagoshimensis</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>ANADKAG</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.077</v>
+        <v>0.053</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G28">
-        <v>1.691</v>
+        <v>0.668</v>
       </c>
       <c r="H28">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="I28">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="29">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="30">
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Eggs of Raja sp</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EGGSRAJ</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.001</v>
+        <v>0.263</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="I30">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="31">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hexaplex trunculus</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HEXATRU</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.762</v>
+        <v>1.691</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I32">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Eggs of Murex</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>EGGSMUR</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.235</v>
+        <v>0.014</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="34">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.083</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nassarius lima</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NASSLIM</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.005</v>
+        <v>0.067</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I35">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Hexaplex trunculus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>HEXATRU</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.018</v>
+        <v>0.762</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I36">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Schizaster canaliferus</t>
+          <t>Liocarcinus depurator</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SCHICAN</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.03</v>
+        <v>0.235</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I37">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.52</v>
+        <v>0.083</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trachythyone elongata</t>
+          <t>Nassarius lima</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TRACELO</t>
+          <t>NASSLIM</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Turritella communis</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TURRCOM</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>4.823733333333333</v>
+        <v>4.051733333333333</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,186 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Schizaster canaliferus</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SCHICAN</t>
+        </is>
+      </c>
+      <c r="G41">
+        <v>0.03</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>4.051733333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Shells NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SHELLS</t>
+        </is>
+      </c>
+      <c r="G42">
+        <v>0.52</v>
+      </c>
+      <c r="H42">
+        <v>-1</v>
+      </c>
+      <c r="I42">
+        <v>4.051733333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Trachythyone elongata</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TRACELO</t>
+        </is>
+      </c>
+      <c r="G43">
+        <v>0.003</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>4.051733333333333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Turritella communis</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TURRCOM</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>0.021</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>4.051733333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOLEMON2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Wood NA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>WOOD</t>
         </is>
       </c>
-      <c r="G41">
+      <c r="G45">
         <v>0.22</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>4.823733333333333</v>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
+        <v>4.051733333333333</v>
       </c>
     </row>
   </sheetData>
